--- a/old_vs_new.xlsx
+++ b/old_vs_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grierjones/DDCASPT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053327A-8416-744C-857E-F6307973F2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF9BC6-E087-7640-8D9E-73F7E6B7B7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{AED869B5-9DA9-004E-87BF-88C813DAB460}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>CASPT2 Energies</t>
   </si>
   <si>
-    <t>MAE</t>
+    <t>MAE (mEh)</t>
   </si>
 </sst>
 </file>
@@ -94,12 +94,48 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,18 +150,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,18 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF12CB86-098B-2544-A362-767A987B63D7}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -487,112 +563,126 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="6">
+        <v>0.15090000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.1961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.82040000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.4029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.15090000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>9.4700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.82040000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="C8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.68379999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.1961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.4029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7.6899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.68379999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.94699999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D9" s="16">
         <v>1.1316999999999999</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
